--- a/SETS_TEST_EXTERNAL/t1_ext_PSA.xlsx
+++ b/SETS_TEST_EXTERNAL/t1_ext_PSA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -36,6 +36,9 @@
   <si>
     <t xml:space="preserve">POLAR</t>
   </si>
+  <si>
+    <t xml:space="preserve">3 molecules salvadas en el ultimo momento. El smiles erra incorrecto</t>
+  </si>
 </sst>
 </file>
 
@@ -49,6 +52,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -66,7 +70,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,6 +81,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2E0AE"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -123,11 +133,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -156,7 +166,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFC2E0AE"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -208,10 +218,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -563,16 +573,16 @@
       <c r="A21" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="0" t="n">
         <v>40.025</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="n">
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
         <v>40.0258</v>
       </c>
     </row>
@@ -580,28 +590,28 @@
       <c r="A22" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -788,6 +798,60 @@
       </c>
       <c r="E35" s="0" t="n">
         <v>39.8046</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>34.6302</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>299.202</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>195.588</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>103.614</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>26.3508</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>362.967</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>267.322</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>95.6449</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>43.5435</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>337.104</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>190.317</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>146.787</v>
       </c>
     </row>
   </sheetData>
